--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,12</t>
+          <t>2,3; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,35</t>
+          <t>4,77; 11,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,69</t>
+          <t>4,8; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,92</t>
+          <t>8,1; 16,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,35</t>
+          <t>13,48; 22,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 16,09</t>
+          <t>10,24; 16,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,98</t>
+          <t>5,9; 10,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,09</t>
+          <t>9,89; 15,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,28</t>
+          <t>8,26; 12,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,91</t>
+          <t>2,17; 5,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,77</t>
+          <t>3,44; 8,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,09</t>
+          <t>4,0; 8,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,6</t>
+          <t>5,95; 11,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,76</t>
+          <t>10,04; 16,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,47</t>
+          <t>13,51; 20,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,04</t>
+          <t>11,11; 17,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,01</t>
+          <t>14,55; 19,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,13</t>
+          <t>6,66; 9,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,87</t>
+          <t>9,43; 13,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 12,29</t>
+          <t>8,4; 12,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,12</t>
+          <t>11,04; 15,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,75</t>
+          <t>1,45; 5,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,39</t>
+          <t>5,63; 12,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,46</t>
+          <t>1,88; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,39</t>
+          <t>7,35; 13,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,27</t>
+          <t>3,26; 8,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 17,3</t>
+          <t>9,78; 17,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,64</t>
+          <t>9,04; 16,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 22,25</t>
+          <t>15,73; 22,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,04</t>
+          <t>2,9; 6,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,59</t>
+          <t>8,52; 13,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,3</t>
+          <t>6,08; 10,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,94</t>
+          <t>12,55; 17,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,96</t>
+          <t>1,35; 5,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,3</t>
+          <t>5,15; 9,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,56</t>
+          <t>3,6; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,34</t>
+          <t>5,98; 13,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,18</t>
+          <t>6,19; 11,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 21,17</t>
+          <t>15,01; 20,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,25</t>
+          <t>12,25; 20,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,03</t>
+          <t>10,03; 16,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,87</t>
+          <t>4,46; 7,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,35</t>
+          <t>10,75; 14,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,83</t>
+          <t>8,96; 13,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,53</t>
+          <t>9,08; 13,67</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,84</t>
+          <t>3,99; 10,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,51</t>
+          <t>2,69; 9,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,93</t>
+          <t>6,08; 14,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,65</t>
+          <t>4,14; 9,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,77</t>
+          <t>11,34; 21,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,64</t>
+          <t>20,64; 33,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,36</t>
+          <t>12,25; 22,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,76</t>
+          <t>10,81; 18,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,91</t>
+          <t>8,8; 14,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 19,22</t>
+          <t>12,4; 19,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,75</t>
+          <t>9,99; 16,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,88</t>
+          <t>8,96; 13,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,68</t>
+          <t>1,06; 4,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,2</t>
+          <t>4,67; 11,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,45</t>
+          <t>4,17; 10,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,82</t>
+          <t>8,65; 14,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,35</t>
+          <t>4,08; 10,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 19,96</t>
+          <t>11,55; 20,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 21,76</t>
+          <t>13,14; 21,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,63</t>
+          <t>18,95; 26,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,48</t>
+          <t>3,1; 6,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,29</t>
+          <t>8,99; 14,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 15,08</t>
+          <t>9,57; 15,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,55</t>
+          <t>14,67; 19,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,64</t>
+          <t>3,39; 6,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,36</t>
+          <t>4,94; 9,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,59</t>
+          <t>5,39; 9,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,53</t>
+          <t>6,65; 11,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,63</t>
+          <t>9,43; 14,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,6</t>
+          <t>9,37; 14,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,07</t>
+          <t>11,5; 17,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,18</t>
+          <t>10,29; 20,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,04</t>
+          <t>6,92; 9,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,86</t>
+          <t>7,89; 11,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 12,6</t>
+          <t>9,06; 12,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,12</t>
+          <t>9,9; 15,09</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,53</t>
+          <t>6,61; 10,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,81</t>
+          <t>4,52; 7,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,07</t>
+          <t>3,89; 6,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,91</t>
+          <t>6,96; 11,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,83</t>
+          <t>10,79; 15,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,82</t>
+          <t>12,01; 16,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,68</t>
+          <t>12,65; 17,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,02; 23,52</t>
+          <t>18,16; 23,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,6</t>
+          <t>9,28; 12,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,03</t>
+          <t>8,83; 11,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,36</t>
+          <t>9,0; 12,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,03; 16,77</t>
+          <t>12,85; 16,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,18; 5,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,76; 7,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,45; 7,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,91</t>
+          <t>7,83; 9,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,18; 12,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,44; 16,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,97; 16,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,69</t>
+          <t>15,68; 18,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,41; 8,76</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,36; 11,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,04; 11,57</t>
+          <t>10,06; 11,63</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,21</t>
+          <t>12,49; 14,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,17</t>
+          <t>2,31; 7,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,06</t>
+          <t>4,76; 11,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,11</t>
+          <t>8,13; 16,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 22,95</t>
+          <t>13,96; 23,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,59</t>
+          <t>5,77; 10,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,94</t>
+          <t>10,33; 16,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,47</t>
+          <t>2,25; 5,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,8</t>
+          <t>3,45; 8,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,34</t>
+          <t>4,02; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,02</t>
+          <t>10,01; 16,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 20,54</t>
+          <t>13,49; 20,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,11; 17,55</t>
+          <t>11,54; 17,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,95</t>
+          <t>6,58; 10,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,81</t>
+          <t>9,41; 13,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,31</t>
+          <t>8,39; 12,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,77</t>
+          <t>1,56; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,27</t>
+          <t>5,61; 12,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,49</t>
+          <t>1,91; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,31</t>
+          <t>3,27; 8,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,46</t>
+          <t>9,89; 17,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,43</t>
+          <t>8,86; 16,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,0</t>
+          <t>2,83; 6,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,77</t>
+          <t>8,35; 13,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,45</t>
+          <t>5,93; 10,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,01</t>
+          <t>1,46; 5,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,38</t>
+          <t>5,46; 9,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,79</t>
+          <t>3,89; 9,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,81</t>
+          <t>6,22; 12,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 20,88</t>
+          <t>14,85; 21,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,08</t>
+          <t>12,37; 20,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,84</t>
+          <t>4,45; 8,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,34</t>
+          <t>10,83; 14,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,4</t>
+          <t>8,9; 13,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,63</t>
+          <t>3,99; 10,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,36</t>
+          <t>2,65; 8,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,43</t>
+          <t>6,29; 14,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 21,99</t>
+          <t>11,39; 21,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 33,06</t>
+          <t>20,64; 33,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 22,2</t>
+          <t>11,98; 21,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,65</t>
+          <t>8,44; 15,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,35</t>
+          <t>12,54; 19,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,44</t>
+          <t>9,9; 16,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,73</t>
+          <t>1,04; 4,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,27</t>
+          <t>4,53; 11,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,09</t>
+          <t>4,09; 10,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,14</t>
+          <t>4,29; 10,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,23</t>
+          <t>11,57; 20,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 21,99</t>
+          <t>12,87; 22,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,68</t>
+          <t>3,03; 6,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,44</t>
+          <t>8,84; 14,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 15,39</t>
+          <t>9,6; 15,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,87</t>
+          <t>3,35; 6,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,08</t>
+          <t>5,09; 9,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,66</t>
+          <t>5,46; 9,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,39</t>
+          <t>9,41; 14,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,62</t>
+          <t>9,43; 14,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,1</t>
+          <t>11,48; 16,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,97</t>
+          <t>6,86; 9,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,23</t>
+          <t>7,81; 11,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 12,66</t>
+          <t>8,96; 12,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,7</t>
+          <t>6,55; 10,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,85</t>
+          <t>4,41; 7,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,91</t>
+          <t>3,93; 7,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,76</t>
+          <t>10,75; 15,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 16,91</t>
+          <t>12,14; 17,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,93</t>
+          <t>13,13; 18,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,43</t>
+          <t>9,4; 12,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 11,89</t>
+          <t>8,73; 12,03</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,32</t>
+          <t>8,89; 12,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,71</t>
+          <t>4,14; 5,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,58</t>
+          <t>5,77; 7,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,12</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,18; 12,29</t>
+          <t>10,09; 12,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,81</t>
+          <t>14,28; 16,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,97; 16,36</t>
+          <t>13,9; 16,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,76</t>
+          <t>7,39; 8,7</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,36; 11,93</t>
+          <t>10,54; 12,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,06; 11,63</t>
+          <t>10,07; 11,6</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,39</t>
+          <t>2,07; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,21</t>
+          <t>4,93; 11,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,15</t>
+          <t>4,71; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,5</t>
+          <t>7,99; 15,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,26</t>
+          <t>13,88; 23,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,0</t>
+          <t>10,4; 16,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,56</t>
+          <t>5,93; 10,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,08</t>
+          <t>10,16; 16,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,12</t>
+          <t>8,25; 12,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,33</t>
+          <t>2,34; 5,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,59</t>
+          <t>3,62; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,3</t>
+          <t>4,1; 8,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,49</t>
+          <t>5,75; 11,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,23</t>
+          <t>10,01; 15,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 20,51</t>
+          <t>13,83; 20,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 17,74</t>
+          <t>11,5; 18,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,94</t>
+          <t>14,62; 20,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,1</t>
+          <t>6,71; 10,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,68</t>
+          <t>9,45; 13,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,49</t>
+          <t>8,37; 12,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 15,01</t>
+          <t>11,22; 15,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,54</t>
+          <t>1,51; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,62</t>
+          <t>5,46; 12,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,49</t>
+          <t>1,99; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,37</t>
+          <t>7,34; 13,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,53</t>
+          <t>3,28; 8,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,42</t>
+          <t>9,74; 17,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,86; 16,12</t>
+          <t>8,84; 15,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,03</t>
+          <t>15,54; 22,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,15</t>
+          <t>2,88; 6,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,59</t>
+          <t>8,68; 13,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,29</t>
+          <t>6,0; 10,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 17,12</t>
+          <t>12,52; 16,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,13</t>
+          <t>1,38; 4,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,62</t>
+          <t>5,3; 9,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,19</t>
+          <t>3,74; 8,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,32</t>
+          <t>5,88; 13,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,48</t>
+          <t>6,35; 12,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 21,02</t>
+          <t>15,17; 21,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,02</t>
+          <t>12,56; 20,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,45</t>
+          <t>9,99; 16,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,01</t>
+          <t>4,34; 7,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 14,46</t>
+          <t>10,78; 14,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,66</t>
+          <t>8,98; 13,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,67</t>
+          <t>9,09; 13,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,85</t>
+          <t>4,06; 10,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,88</t>
+          <t>2,71; 9,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,67</t>
+          <t>5,53; 13,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,85</t>
+          <t>4,03; 9,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,39; 21,7</t>
+          <t>12,13; 22,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 33,05</t>
+          <t>20,38; 32,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 21,97</t>
+          <t>12,32; 22,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,96</t>
+          <t>10,57; 18,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 15,07</t>
+          <t>8,54; 14,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,54; 19,81</t>
+          <t>12,15; 19,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,34</t>
+          <t>10,06; 16,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,8</t>
+          <t>9,14; 13,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,83</t>
+          <t>0,73; 4,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,57</t>
+          <t>4,63; 11,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,56</t>
+          <t>4,04; 10,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 14,88</t>
+          <t>8,87; 14,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,29</t>
+          <t>4,31; 10,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 20,77</t>
+          <t>11,42; 19,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,87; 22,43</t>
+          <t>12,88; 21,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,95; 26,66</t>
+          <t>19,17; 26,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,6</t>
+          <t>3,06; 6,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,41</t>
+          <t>9,14; 14,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,07</t>
+          <t>9,38; 15,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,56</t>
+          <t>14,84; 19,55</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,73</t>
+          <t>3,24; 6,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,13</t>
+          <t>5,0; 9,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,65</t>
+          <t>5,35; 9,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,36</t>
+          <t>6,68; 11,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,14</t>
+          <t>9,25; 14,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,28</t>
+          <t>9,62; 14,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,88</t>
+          <t>11,56; 17,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,05</t>
+          <t>9,93; 20,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,99</t>
+          <t>7,02; 10,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,17</t>
+          <t>7,72; 10,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,62</t>
+          <t>9,02; 12,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,09</t>
+          <t>9,53; 15,12</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,41</t>
+          <t>6,53; 10,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,94</t>
+          <t>4,34; 7,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,1</t>
+          <t>3,86; 7,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,14</t>
+          <t>6,8; 10,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 15,92</t>
+          <t>10,79; 15,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,14; 17,34</t>
+          <t>11,96; 16,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,27</t>
+          <t>13,02; 18,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,16; 23,46</t>
+          <t>18,02; 23,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,69</t>
+          <t>9,38; 12,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,03</t>
+          <t>8,93; 12,03</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,15</t>
+          <t>8,97; 12,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,5</t>
+          <t>13,03; 16,77</t>
         </is>
       </c>
     </row>
@@ -1849,57 +1849,57 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,57</t>
+          <t>5,7; 7,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,51; 7,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,94</t>
+          <t>7,88; 9,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,25</t>
+          <t>10,14; 12,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,28; 16,84</t>
+          <t>14,5; 16,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,9; 16,52</t>
+          <t>14,11; 16,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,7</t>
+          <t>15,75; 18,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,7</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,0</t>
+          <t>10,42; 11,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,07; 11,6</t>
+          <t>10,04; 11,57</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,32</t>
+          <t>12,46; 14,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,51; 14,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,69</t>
+          <t>4,29; 10,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,63; 24,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 16,09</t>
+          <t>9,96; 15,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,58; 17,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,28</t>
+          <t>7,69; 11,64</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,6</t>
+          <t>5,47; 11,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,01</t>
+          <t>14,62; 19,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,12</t>
+          <t>10,88; 14,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,39</t>
+          <t>7,23; 13,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 22,25</t>
+          <t>15,38; 22,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,94</t>
+          <t>12,17; 16,61</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,3</t>
+          <t>3,13; 7,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,34</t>
+          <t>5,8; 13,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 21,17</t>
+          <t>13,36; 20,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,03</t>
+          <t>6,13; 13,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,35</t>
+          <t>9,03; 13,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,53</t>
+          <t>7,2; 12,27</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,65</t>
+          <t>4,01; 9,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,76</t>
+          <t>7,21; 18,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,88</t>
+          <t>7,35; 13,45</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,82</t>
+          <t>8,68; 14,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,63</t>
+          <t>19,15; 26,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,55</t>
+          <t>14,65; 19,28</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,53</t>
+          <t>6,47; 11,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,18</t>
+          <t>6,5; 19,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,12</t>
+          <t>7,32; 14,44</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,91</t>
+          <t>3,05; 10,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,02; 23,52</t>
+          <t>18,2; 23,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,03; 16,77</t>
+          <t>7,76; 16,03</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,91</t>
+          <t>6,34; 9,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,69</t>
+          <t>13,6; 17,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,21</t>
+          <t>10,72; 13,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,12</t>
+          <t>2,2; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,08</t>
+          <t>6,44; 13,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,35</t>
+          <t>4,93; 11,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,04</t>
+          <t>4,3; 9,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,92</t>
+          <t>8,18; 16,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,25</t>
+          <t>14,27; 24,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,35</t>
+          <t>14,05; 23,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,59</t>
+          <t>9,87; 15,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,98</t>
+          <t>5,69; 10,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,65</t>
+          <t>11,76; 17,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,09</t>
+          <t>10,32; 16,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,64</t>
+          <t>7,73; 11,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,91</t>
+          <t>2,21; 5,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,77</t>
+          <t>3,53; 9,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,09</t>
+          <t>3,88; 8,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,2</t>
+          <t>5,71; 11,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,76</t>
+          <t>10,1; 16,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 20,47</t>
+          <t>13,58; 20,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,04</t>
+          <t>11,72; 18,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,84</t>
+          <t>14,49; 19,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,13</t>
+          <t>6,72; 10,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,87</t>
+          <t>9,33; 13,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 12,29</t>
+          <t>8,4; 12,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,71</t>
+          <t>10,81; 14,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,75</t>
+          <t>1,35; 5,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,39</t>
+          <t>5,3; 12,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,46</t>
+          <t>1,91; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,13</t>
+          <t>7,36; 13,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,27</t>
+          <t>3,29; 8,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 17,3</t>
+          <t>9,95; 17,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,64</t>
+          <t>8,85; 15,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 22,05</t>
+          <t>15,27; 22,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,04</t>
+          <t>2,9; 6,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,59</t>
+          <t>8,47; 13,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,3</t>
+          <t>6,1; 10,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,61</t>
+          <t>12,43; 16,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,96</t>
+          <t>1,53; 5,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,86</t>
+          <t>3,11; 8,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,56</t>
+          <t>3,91; 8,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,13</t>
+          <t>5,86; 13,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,18</t>
+          <t>6,12; 11,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,91</t>
+          <t>13,6; 21,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,25</t>
+          <t>12,4; 20,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,89</t>
+          <t>6,18; 14,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,87</t>
+          <t>4,45; 7,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,64</t>
+          <t>9,23; 13,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,83</t>
+          <t>8,8; 13,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 12,27</t>
+          <t>7,35; 12,75</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,84</t>
+          <t>3,93; 10,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,51</t>
+          <t>2,54; 8,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,93</t>
+          <t>6,18; 14,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,48</t>
+          <t>4,26; 9,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,77</t>
+          <t>11,47; 21,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,64</t>
+          <t>20,47; 32,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,36</t>
+          <t>11,98; 22,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 18,56</t>
+          <t>7,08; 18,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,91</t>
+          <t>8,53; 14,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 19,22</t>
+          <t>12,58; 19,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 16,75</t>
+          <t>10,34; 16,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,45</t>
+          <t>7,39; 13,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,68</t>
+          <t>1,04; 4,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,2</t>
+          <t>4,7; 11,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,45</t>
+          <t>3,89; 9,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,6</t>
+          <t>8,6; 14,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,35</t>
+          <t>4,31; 10,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 19,96</t>
+          <t>11,23; 19,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 21,76</t>
+          <t>13,04; 22,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,15; 26,59</t>
+          <t>19,27; 26,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,48</t>
+          <t>2,98; 6,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,29</t>
+          <t>8,98; 14,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 15,08</t>
+          <t>9,64; 15,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 19,28</t>
+          <t>14,56; 19,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,64</t>
+          <t>3,17; 6,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,36</t>
+          <t>5,01; 9,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,59</t>
+          <t>5,35; 9,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,36</t>
+          <t>6,59; 11,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,63</t>
+          <t>9,34; 14,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,6</t>
+          <t>9,45; 14,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,07</t>
+          <t>11,03; 16,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,63</t>
+          <t>6,95; 19,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,04</t>
+          <t>7,0; 10,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,86</t>
+          <t>7,86; 11,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 12,6</t>
+          <t>9,2; 12,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,44</t>
+          <t>7,46; 14,3</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,53</t>
+          <t>6,71; 10,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,81</t>
+          <t>4,48; 8,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,07</t>
+          <t>3,86; 7,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,05; 10,29</t>
+          <t>2,77; 10,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,83</t>
+          <t>10,88; 15,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,82</t>
+          <t>11,9; 16,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,68</t>
+          <t>12,77; 18,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,5</t>
+          <t>17,94; 23,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,6</t>
+          <t>9,36; 12,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,03</t>
+          <t>8,92; 11,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,36</t>
+          <t>8,92; 12,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,76; 16,03</t>
+          <t>8,28; 15,82</t>
         </is>
       </c>
     </row>
@@ -1844,52 +1845,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,21; 5,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,81; 7,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,51; 7,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,33</t>
+          <t>6,53; 9,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,1; 12,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,42; 16,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,98; 16,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,92</t>
+          <t>12,89; 17,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,45; 8,85</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,43; 12,04</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1900,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,72; 13,34</t>
+          <t>10,81; 13,44</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11631</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28764</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22551</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20664</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30731</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54300</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51970</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36320</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42362</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>83064</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74521</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56984</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6010; 19784</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18986; 40691</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14489; 34181</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13391; 30128</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21328; 41757</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40999; 69644</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40570; 67561</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28590; 44752</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30383; 55447</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68423; 103296</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60095; 93596</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46491; 69816</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17804</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28982</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29423</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41872</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64406</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>88159</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75007</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87965</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82210</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>117141</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>104429</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>129838</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10912; 27471</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17846; 45511</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19481; 40324</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29577; 57227</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50888; 81064</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71151; 107753</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61286; 94490</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>74630; 102030</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>67010; 102606</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95984; 138512</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86160; 125323</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>111738; 151973</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9685</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27187</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11868</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31256</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18263</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45024</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40690</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64931</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27949</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72212</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52558</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>96187</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4302; 17586</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17173; 39551</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6099; 19840</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23256; 42399</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11039; 27654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33935; 58873</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29747; 53589</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53329; 76879</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18995; 40520</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56306; 89642</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39940; 67598</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82678; 112698</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19019</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27541</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32933</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66407</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62389</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50013</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43082</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>85426</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>84127</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77554</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5504; 19382</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11618; 29958</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14448; 31942</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18318; 40739</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22746; 43352</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>52891; 82052</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48041; 77484</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29417; 67742</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32506; 56541</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70450; 105288</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66675; 103881</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57908; 100520</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13551</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10987</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20060</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11585</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33492</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>57050</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36689</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36150</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>47043</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68038</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56750</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>47735</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7997; 22213</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5410; 18831</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13052; 29957</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7615; 17115</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23817; 44973</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44942; 71564</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26188; 49190</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18330; 47095</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35073; 60249</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>54372; 85081</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44438; 71273</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32349; 58086</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17697</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30397</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19105</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43359</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47211</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>58116</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24979</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>63551</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>64908</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>88514</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2808; 12725</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12871; 31889</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10231; 26221</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23179; 39498</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11979; 28978</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>31454; 55749</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35628; 60708</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49523; 68569</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16385; 35719</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>49748; 79575</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>51702; 81841</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>76674; 102392</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>29787</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45878</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>48157</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53744</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>74864</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81286</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>96466</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>120446</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>104651</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>127164</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>144622</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>174190</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19516; 42529</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33234; 60013</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35099; 63449</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>41122; 71854</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>59606; 91026</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>65583; 100562</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>76280; 116415</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58991; 163737</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>87690; 125359</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>106633; 151306</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>123990; 171187</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>109878; 210708</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>62544</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>46671</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>41205</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>65541</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>103013</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>119240</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>127910</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>148102</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>165558</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>165911</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>169115</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>213643</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>49937; 80482</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>34899; 62782</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>30058; 55118</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>25771; 95191</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>85261; 123694</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>98045; 140011</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>105501; 149433</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>128753; 166664</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>142900; 192593</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>142972; 191586</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>143099; 195555</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>136298; 260511</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>227680</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>212698</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>282602</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>376807</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>554826</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>538331</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>602042</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>537832</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>782506</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>751029</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>884644</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>137978; 188322</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>198997; 261076</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>187163; 243107</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>225782; 324905</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>341295; 413853</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>513093; 597912</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>495516; 583035</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>478497; 656282</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>495709; 588787</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>728374; 840686</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>696759; 802928</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>775592; 964118</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>